--- a/数据结构描述表.xlsx
+++ b/数据结构描述表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clutch\Desktop\data_labeling\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD12CFA-D8B0-4D27-886F-868693614BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,182 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据元素组成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSTR1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户的基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id，用户名，密码，账户余额，手机号，性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSTR2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户的标注历史信息的汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户星级，图片任务数量，视频任务数量，文本任务数量，音频任务数量标注偏好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSTR3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务的基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务编号，发布者id，任务名称，数据类型，任务描述，任务数据条数，任务单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSTR4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务能够进行的要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务组数，任务每组人数，任务星级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSTR5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务进行的状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务发布时间，任务招募开始时间，任务开始时间，任务截止时间，任务状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务的分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSTR6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个标注者需要完成任务的部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务编号，标注者id，组号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSTR7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务的发布者与标注者对于对方在这个任务的表现反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务评分，结果反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务编号，标注的标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSTR8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务发布者提供的可供选择用于标注的标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSTR9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标注者对于任务中的每道题给出的答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务编号，标注者id，题号，结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +207,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,15 +243,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +589,804 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="9" max="9" width="41.546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="22" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="29" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="35" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="36" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="42" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="43" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="49" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="50" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="8"/>
+    </row>
+    <row r="51" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H51" s="4"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="56" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="57" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="8"/>
+    </row>
+    <row r="58" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="99">
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:I59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:I60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:I61"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:I53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:I54"/>
+    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="A50:I50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:I46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:I47"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:I38"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:I3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>